--- a/data/dataset_clean_2.xlsx
+++ b/data/dataset_clean_2.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -381,41 +381,41 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D2">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D3">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D4">
         <v>3</v>
@@ -432,77 +432,77 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B7">
         <v>2</v>
       </c>
       <c r="C7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D7">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B8">
         <v>2</v>
       </c>
       <c r="C8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D8">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D9">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D10">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -516,7 +516,7 @@
         <v>2</v>
       </c>
       <c r="D11">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12">
@@ -530,20 +530,76 @@
         <v>2</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
+        <v>19</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14">
         <v>20</v>
       </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-      <c r="D13">
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15">
+        <v>19</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16">
+        <v>20</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17">
+        <v>20</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
         <v>4</v>
       </c>
     </row>

--- a/data/dataset_clean_2.xlsx
+++ b/data/dataset_clean_2.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -381,41 +381,41 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2">
+        <v>4</v>
+      </c>
+      <c r="D2">
         <v>3</v>
-      </c>
-      <c r="D2">
-        <v>8</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D4">
         <v>3</v>
@@ -432,77 +432,77 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D6">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B7">
         <v>2</v>
       </c>
       <c r="C7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D7">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B8">
         <v>2</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D9">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11">
@@ -516,7 +516,7 @@
         <v>2</v>
       </c>
       <c r="D11">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12">
@@ -530,76 +530,20 @@
         <v>2</v>
       </c>
       <c r="D12">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B13">
         <v>1</v>
       </c>
       <c r="C13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D13">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14">
-        <v>20</v>
-      </c>
-      <c r="B14">
-        <v>2</v>
-      </c>
-      <c r="C14">
-        <v>2</v>
-      </c>
-      <c r="D14">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15">
-        <v>19</v>
-      </c>
-      <c r="B15">
-        <v>2</v>
-      </c>
-      <c r="C15">
-        <v>2</v>
-      </c>
-      <c r="D15">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16">
-        <v>20</v>
-      </c>
-      <c r="B16">
-        <v>2</v>
-      </c>
-      <c r="C16">
-        <v>2</v>
-      </c>
-      <c r="D16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17">
-        <v>20</v>
-      </c>
-      <c r="B17">
-        <v>1</v>
-      </c>
-      <c r="C17">
-        <v>1</v>
-      </c>
-      <c r="D17">
         <v>4</v>
       </c>
     </row>
